--- a/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/questionnaire_final.xlsx
+++ b/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/questionnaire_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="1386">
   <si>
     <t>PROLIFIC_PID</t>
   </si>
@@ -2900,6 +2900,1302 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>67d88f73-7672-4027-98f5-6463b4edc1f7</t>
+  </si>
+  <si>
+    <t>93054cc2-22c5-4ad6-8427-e87a59330550</t>
+  </si>
+  <si>
+    <t>ff10f939-c494-42a7-9dda-db09c3f1cbfb</t>
+  </si>
+  <si>
+    <t>e2432d72-71f3-4c9c-816b-344d659a8a98</t>
+  </si>
+  <si>
+    <t>2372728a-1554-4b74-bdb8-fc1b458cd84b</t>
+  </si>
+  <si>
+    <t>96ced3a1-c238-42a7-a384-972ecb827ef7</t>
+  </si>
+  <si>
+    <t>4dbc03aa-ef88-4c3c-a65b-111ea22e5a77</t>
+  </si>
+  <si>
+    <t>d5c8fbf0-86c5-4ad7-930b-2337a0dde821</t>
+  </si>
+  <si>
+    <t>b6b4e386-7c68-410c-8f1e-d26fe6de228b</t>
+  </si>
+  <si>
+    <t>686eb427-5afa-40f8-a326-bf7f888c817c</t>
+  </si>
+  <si>
+    <t>7359f40a-d1bf-4488-aff7-996c937c178c</t>
+  </si>
+  <si>
+    <t>e9ec8b7a-19d3-49ae-96c8-2f4611046a24</t>
+  </si>
+  <si>
+    <t>b2a0210a-04c0-4c9a-94f7-ff067e50f322</t>
+  </si>
+  <si>
+    <t>a7817fa8-57ef-4d06-b211-3b538008214e</t>
+  </si>
+  <si>
+    <t>f1dff0a4-f2df-4e1d-a1e2-af0998b22827</t>
+  </si>
+  <si>
+    <t>25ed7243-8757-478e-ac85-446b6a3a74f1</t>
+  </si>
+  <si>
+    <t>f16484f1-e7fa-4e5a-8ddc-c7a5a1a98d73</t>
+  </si>
+  <si>
+    <t>3c31933e-4d4b-4470-b22e-453216b172bf</t>
+  </si>
+  <si>
+    <t>c2ef1ea2-cd4b-4254-8b5d-05ac028a4b75</t>
+  </si>
+  <si>
+    <t>1391b737-31b0-4801-b000-c8468ac78fbf</t>
+  </si>
+  <si>
+    <t>b140d5c7-8ad3-4697-90ba-771346add31f</t>
+  </si>
+  <si>
+    <t>9ff6b7dc-5993-4342-90fb-734d4abc7388</t>
+  </si>
+  <si>
+    <t>e5fe832e-4027-46f0-8dac-3ae12d6be880</t>
+  </si>
+  <si>
+    <t>b04a7178-0386-4446-9aa7-a51271502dcc</t>
+  </si>
+  <si>
+    <t>e379608f-689d-44e3-8b5d-b663d465bea3</t>
+  </si>
+  <si>
+    <t>eb73ea52-bc84-49d7-9587-ee803cef8ac3</t>
+  </si>
+  <si>
+    <t>1c6a989e-87a9-42df-9875-39737313acc2</t>
+  </si>
+  <si>
+    <t>d0c57c19-3826-49cd-8f98-2afe80cc78db</t>
+  </si>
+  <si>
+    <t>f9a7f254-8f20-40dd-b389-f3d7cd26b025</t>
+  </si>
+  <si>
+    <t>a57e79ad-4efa-4352-8c71-9ea307c4f84b</t>
+  </si>
+  <si>
+    <t>dd309540-8638-4343-a094-18add58b76ad</t>
+  </si>
+  <si>
+    <t>0ba6a0cd-db01-4ac6-b4ff-4e8ef6ffd3d9</t>
+  </si>
+  <si>
+    <t>ed307214-1716-4638-9a91-1c1485e3d66c</t>
+  </si>
+  <si>
+    <t>eeb0c550-f62e-4768-b2b4-c4905c715514</t>
+  </si>
+  <si>
+    <t>e24d6314-a5a3-4f0c-aefb-77ee7b5a9d31</t>
+  </si>
+  <si>
+    <t>a5815276-cec9-47e5-8aab-f048bf3626de</t>
+  </si>
+  <si>
+    <t>b6c60582-aefd-4543-a47d-261456a34029</t>
+  </si>
+  <si>
+    <t>07f908bc-e189-49a5-a28c-633098ffef20</t>
+  </si>
+  <si>
+    <t>968e5394-940e-47c5-85eb-25784bc8a7fc</t>
+  </si>
+  <si>
+    <t>5e068e94-2f0f-40b2-817b-f290c3adab08</t>
+  </si>
+  <si>
+    <t>b844a791-6edc-4958-a1df-693cd8c80cb5</t>
+  </si>
+  <si>
+    <t>6b1d49ac-0ea1-4c20-8be3-c81f113896b8</t>
+  </si>
+  <si>
+    <t>5951fd74-1350-40de-bdf2-a9a2e7347a72</t>
+  </si>
+  <si>
+    <t>ef91c661-a8e0-442d-ade8-7f7274075aff</t>
+  </si>
+  <si>
+    <t>2ff84679-c0d5-4155-bd6c-1dfe8df3c930</t>
+  </si>
+  <si>
+    <t>1a3645d9-a47a-44b6-9f11-b3488a860136</t>
+  </si>
+  <si>
+    <t>b856e644-0f7b-4e4b-ad22-253cdce86b22</t>
+  </si>
+  <si>
+    <t>c331afea-cac2-49f5-99c2-14e7898f5c2d</t>
+  </si>
+  <si>
+    <t>bc547320-d640-4e59-aa7c-1ef59189b42a</t>
+  </si>
+  <si>
+    <t>e94223c0-8019-4d2f-a13f-f782c523b3a4</t>
+  </si>
+  <si>
+    <t>10a31fa7-bc6f-42c9-b263-3186440e27c9</t>
+  </si>
+  <si>
+    <t>c4c371ba-4b17-4157-bc86-41b32be95de3</t>
+  </si>
+  <si>
+    <t>4169c386-f185-4153-9941-f40fdba582a0</t>
+  </si>
+  <si>
+    <t>08615304-8525-4909-a82d-1b42e072c9de</t>
+  </si>
+  <si>
+    <t>c9374aec-3195-4b35-9cf6-57db04cde7cd</t>
+  </si>
+  <si>
+    <t>a6057252-da92-4aa3-b96f-5277bef8a41b</t>
+  </si>
+  <si>
+    <t>bbc9d5c3-9c85-4042-9e9f-a54e62faca9a</t>
+  </si>
+  <si>
+    <t>f5da2fd6-5ac6-464e-8c7e-e81e27555ed1</t>
+  </si>
+  <si>
+    <t>cd3dc9a8-9cfa-412e-811a-f020de2002e6</t>
+  </si>
+  <si>
+    <t>ff21ff6d-4264-47c0-87cd-3972e1005209</t>
+  </si>
+  <si>
+    <t>53672d4e-598a-4be2-af49-8cac5957c423</t>
+  </si>
+  <si>
+    <t>a411e968-d2c2-450c-8cbf-f5c13113011e</t>
+  </si>
+  <si>
+    <t>3204b5bc-9529-4b04-ab61-f06f69e18811</t>
+  </si>
+  <si>
+    <t>0ea5987b-6841-4e72-a7b5-ce9d4f9d9622</t>
+  </si>
+  <si>
+    <t>e4807e2b-6030-408f-9e22-b6107aa91cab</t>
+  </si>
+  <si>
+    <t>8b7ac4b2-723d-421b-81d0-e045e5cf23f9</t>
+  </si>
+  <si>
+    <t>a8c4e167-3040-4691-97f7-335bd7ea010b</t>
+  </si>
+  <si>
+    <t>b1a53c70-2c04-4eaf-b06d-00f4ddf8a3d4</t>
+  </si>
+  <si>
+    <t>e3458515-c043-4d7e-a116-b870590110cb</t>
+  </si>
+  <si>
+    <t>31ddc195-56b5-49b8-802e-398c11bb1310</t>
+  </si>
+  <si>
+    <t>2c7f98ed-e441-43e9-bbe2-811fd32476d7</t>
+  </si>
+  <si>
+    <t>eab6a6b3-901d-4a71-b6ee-460d1cfa6b57</t>
+  </si>
+  <si>
+    <t>0a3bbf7f-a4dc-449a-8eb9-0a491ad8f00e</t>
+  </si>
+  <si>
+    <t>894ba5a3-b1d6-48df-88a2-7c1f0dfb624a</t>
+  </si>
+  <si>
+    <t>d5402f33-f4c7-41ea-a13e-367f92b48067</t>
+  </si>
+  <si>
+    <t>d3cafa8c-ff3f-495f-b88f-e3ff0aad8276</t>
+  </si>
+  <si>
+    <t>4f7c2cc1-fb4e-4e9b-b4c0-f068b52d13a6</t>
+  </si>
+  <si>
+    <t>c6d00bc9-3f5b-48a4-bf29-27e0aef92c07</t>
+  </si>
+  <si>
+    <t>40b95e1e-7d4b-4236-8d6b-452d90b8ed25</t>
+  </si>
+  <si>
+    <t>425c136c-828a-4fff-8d3d-a11b7ce94fc2</t>
+  </si>
+  <si>
+    <t>bb8ce1f5-8c89-46ae-b5d0-fd388f3781f7</t>
+  </si>
+  <si>
+    <t>af1e2d25-a53d-4225-913d-4034a685b645</t>
+  </si>
+  <si>
+    <t>9064db3d-2a5d-4489-b2ca-48beb38b0b58</t>
+  </si>
+  <si>
+    <t>20fb814b-944b-4151-9989-98e747026072</t>
+  </si>
+  <si>
+    <t>42da5102-bfd6-4aeb-8a16-e261f6946b20</t>
+  </si>
+  <si>
+    <t>2e4cfec5-cd3c-4dfa-bd62-ba6dc7a10fce</t>
+  </si>
+  <si>
+    <t>c68b73f7-3386-4bdf-8018-ac4910e48b99</t>
+  </si>
+  <si>
+    <t>78017486-2a19-48bc-9839-e5528e902f07</t>
+  </si>
+  <si>
+    <t>337ba88b-57a8-416c-b024-56c7ec77973a</t>
+  </si>
+  <si>
+    <t>a1ac7e16-9902-45b8-b259-68117ec96602</t>
+  </si>
+  <si>
+    <t>6a8e6149-1a81-46d9-8a50-27a580840f1a</t>
+  </si>
+  <si>
+    <t>171b6d5d-2857-47e5-8ba1-5209ac3dfa29</t>
+  </si>
+  <si>
+    <t>3c77358a-3e82-4a63-9771-19a52a7634e6</t>
+  </si>
+  <si>
+    <t>1220bf3e-0f5f-40cc-81d8-1619b2aa845c</t>
+  </si>
+  <si>
+    <t>1a40350e-c384-4d35-8416-bb73b09dfc02</t>
+  </si>
+  <si>
+    <t>04afdc38-29d5-48aa-9138-0f7735d9dc05</t>
+  </si>
+  <si>
+    <t>5fe08e2c-6435-4fc8-8774-5a55e249ff3e</t>
+  </si>
+  <si>
+    <t>accadebf-a880-4c9a-bd21-500296454b8e</t>
+  </si>
+  <si>
+    <t>d05b954a-7230-4783-8410-5cf1b6ce0140</t>
+  </si>
+  <si>
+    <t>580b7472-d6e2-4dfc-8c2e-12ed71e4d98d</t>
+  </si>
+  <si>
+    <t>069068ad-d01f-4299-85c7-3d7b2e7f25a2</t>
+  </si>
+  <si>
+    <t>0624f5f3-a5f1-4d0e-a693-ea4d50922280</t>
+  </si>
+  <si>
+    <t>e5d43533-cb2b-465e-87a1-341bee79f02d</t>
+  </si>
+  <si>
+    <t>8f1ad48b-c79e-4006-8436-a674fcdcd84a</t>
+  </si>
+  <si>
+    <t>e5b6c7bc-357e-4763-887a-8de111769bd2</t>
+  </si>
+  <si>
+    <t>cf7c027c-f702-4d0d-afbf-410dac63c7de</t>
+  </si>
+  <si>
+    <t>8f180c31-c24e-4bf4-9d6a-52c894d065c2</t>
+  </si>
+  <si>
+    <t>0b419dbc-a5af-43ce-abb5-c427ea0226f5</t>
+  </si>
+  <si>
+    <t>2563766f-b761-4eac-8a41-65ea874e387e</t>
+  </si>
+  <si>
+    <t>3ddbee71-22a5-433e-820d-3d5d6065097f</t>
+  </si>
+  <si>
+    <t>1dd6d655-5f7d-4932-afab-ede3768dba56</t>
+  </si>
+  <si>
+    <t>52e02f6a-a4df-48e5-b1e5-143d03104b4f</t>
+  </si>
+  <si>
+    <t>f1abba8a-dd0d-4152-bf0c-0f737cab8816</t>
+  </si>
+  <si>
+    <t>afbbf940-c6eb-446f-b1b3-3ad0f2c1c88c</t>
+  </si>
+  <si>
+    <t>e84db07a-cce0-42ba-9e75-02235905500d</t>
+  </si>
+  <si>
+    <t>85f22ceb-b65d-48ed-94f4-3cf3335f6159</t>
+  </si>
+  <si>
+    <t>7af616c4-c1f5-4ae6-97c0-8d6657d47520</t>
+  </si>
+  <si>
+    <t>51c77f8b-a11d-4f67-b4db-85ac9b6e4bbd</t>
+  </si>
+  <si>
+    <t>f50a29e8-1ee2-4039-9c43-4e8d1fb6a4c2</t>
+  </si>
+  <si>
+    <t>523189e2-a0ec-4512-8d92-f5b3b20a2558</t>
+  </si>
+  <si>
+    <t>2f41fa8c-38e4-4e67-a28e-fac1c09c5f06</t>
+  </si>
+  <si>
+    <t>01af9189-440e-493a-a00e-5c835c1d5d3a</t>
+  </si>
+  <si>
+    <t>bdf783f8-454a-489e-8c5a-e25a04b0d4a5</t>
+  </si>
+  <si>
+    <t>4ba69c8a-f4b7-44de-a149-b3f0b9f47555</t>
+  </si>
+  <si>
+    <t>4931bb49-5d85-439c-956b-ec0757ba39e3</t>
+  </si>
+  <si>
+    <t>21a4de17-cb64-4f84-9def-81bf57678337</t>
+  </si>
+  <si>
+    <t>599b33b5-db21-4603-b257-cde81ca64bd4</t>
+  </si>
+  <si>
+    <t>5c561af6-132d-4036-9472-e4b65bd84862</t>
+  </si>
+  <si>
+    <t>bc7ee580-2905-4eac-a9e8-82033b1acb64</t>
+  </si>
+  <si>
+    <t>b4f8a0b0-7f2b-430a-82dc-44fa383088e4</t>
+  </si>
+  <si>
+    <t>1bc8ec17-8a23-439b-a204-f49e2f08567b</t>
+  </si>
+  <si>
+    <t>f1eb738f-32b1-4ab6-bbc0-7dd73abd5cac</t>
+  </si>
+  <si>
+    <t>0126c28c-b57e-49ac-bbb9-9d24f731fd3a</t>
+  </si>
+  <si>
+    <t>9535d531-07fe-42f4-98a2-26ed3d062421</t>
+  </si>
+  <si>
+    <t>86939696-29e5-40ca-aa78-b127aa88065e</t>
+  </si>
+  <si>
+    <t>f1579ce6-f39b-415c-be8d-bd7e32299e72</t>
+  </si>
+  <si>
+    <t>d6e9c897-2c72-44a5-a921-f1c8b0f00029</t>
+  </si>
+  <si>
+    <t>463d4af0-cc56-4d96-a7a7-fb6d91615410</t>
+  </si>
+  <si>
+    <t>00aff601-0944-4508-8541-5c02824bd709</t>
+  </si>
+  <si>
+    <t>19038cb0-6ec8-4aaf-bb0c-0cd2de1b338e</t>
+  </si>
+  <si>
+    <t>3be01753-cb70-48c3-9b40-60ea9962b9dd</t>
+  </si>
+  <si>
+    <t>2080b905-a1e1-4367-a450-fdbbd8cb5e80</t>
+  </si>
+  <si>
+    <t>f349e60f-53a2-4f52-a7d2-7e3f88698397</t>
+  </si>
+  <si>
+    <t>d6fdcfb1-82c6-43bd-904f-12601ed827e4</t>
+  </si>
+  <si>
+    <t>9ce5ea53-8f39-4144-bf3a-153e6745bb2b</t>
+  </si>
+  <si>
+    <t>ab3f83ee-89b4-4de8-b52a-64a2b564941a</t>
+  </si>
+  <si>
+    <t>a1889cf1-8b05-4cb0-9685-939d7694f180</t>
+  </si>
+  <si>
+    <t>2fd11ec5-e468-4f9f-b88a-ad0931454ae0</t>
+  </si>
+  <si>
+    <t>57801af2-ab46-4f3f-a63f-1971b27a2461</t>
+  </si>
+  <si>
+    <t>9e146c5b-be3a-4022-91a3-b6a14fec5070</t>
+  </si>
+  <si>
+    <t>55958571-2cfc-4378-906f-c39d3c7565a7</t>
+  </si>
+  <si>
+    <t>a9d51335-b408-4695-969a-3e68f1703a84</t>
+  </si>
+  <si>
+    <t>9da95065-eedc-402b-b265-f842be19c60e</t>
+  </si>
+  <si>
+    <t>bc4474cb-256e-4cba-aba6-64b0c0bf82fb</t>
+  </si>
+  <si>
+    <t>5640021e-b0a4-41a8-a711-4446e7b2be48</t>
+  </si>
+  <si>
+    <t>059d84bf-9cf9-4e08-926f-12c4b5b16504</t>
+  </si>
+  <si>
+    <t>24d45a10-a693-4d46-809b-06bf36940f04</t>
+  </si>
+  <si>
+    <t>d011cd6c-e316-4616-964b-b83dd86f7da1</t>
+  </si>
+  <si>
+    <t>58150d17-1b9b-47b1-8f30-a71a23174f82</t>
+  </si>
+  <si>
+    <t>b2bbe07a-0a68-4f07-9cf2-ee89466f97e4</t>
+  </si>
+  <si>
+    <t>52f6720c-2c36-473a-8021-7793ba931781</t>
+  </si>
+  <si>
+    <t>b82eab01-a0f5-4443-9b8d-69cf7446fe7c</t>
+  </si>
+  <si>
+    <t>c5f0504f-e22f-44df-90e4-e6cdc0d575bf</t>
+  </si>
+  <si>
+    <t>247dddee-6121-4793-b5b6-8027a162e12f</t>
+  </si>
+  <si>
+    <t>b75cface-2dec-405d-9ebd-963b8660a202</t>
+  </si>
+  <si>
+    <t>877d1da8-cce8-40cb-a4a1-7f022f82dbe2</t>
+  </si>
+  <si>
+    <t>710e3852-acd8-4669-8426-6ee802b39388</t>
+  </si>
+  <si>
+    <t>e76181b1-99ea-4065-a12d-f96b507344d7</t>
+  </si>
+  <si>
+    <t>be9754cd-104b-403a-90e3-84196b613523</t>
+  </si>
+  <si>
+    <t>fc0011ab-6cf3-4013-a8f7-c6f33788c402</t>
+  </si>
+  <si>
+    <t>57352506-7df0-4fb9-b79c-3df0e14a098c</t>
+  </si>
+  <si>
+    <t>c664c7ce-ddf7-4991-aa66-7de539215437</t>
+  </si>
+  <si>
+    <t>24f2177c-8bdb-4fc6-8d86-04121ff9fdd1</t>
+  </si>
+  <si>
+    <t>85186556-fc5a-403d-a571-f117c3b23223</t>
+  </si>
+  <si>
+    <t>5af5051a-ad7c-4b39-8dbc-0a35184a8e94</t>
+  </si>
+  <si>
+    <t>c4dfdb1f-726a-4cfd-8a37-3d6bdfdea7cb</t>
+  </si>
+  <si>
+    <t>8cc2c4e8-f161-4bf9-971a-7cc8dd01668d</t>
+  </si>
+  <si>
+    <t>f797db68-57df-49f1-a5aa-b9d816db8774</t>
+  </si>
+  <si>
+    <t>8b48bb85-8408-4949-93e5-c542081fdecc</t>
+  </si>
+  <si>
+    <t>a041fc15-059c-4092-9f14-2a3397bc0001</t>
+  </si>
+  <si>
+    <t>02d81a23-e7af-4677-986d-fbe04685eac5</t>
+  </si>
+  <si>
+    <t>6252b4a8-7589-4c89-98ea-6456d2201d3f</t>
+  </si>
+  <si>
+    <t>7cc633b0-81ed-4a11-be86-0124fb1b6145</t>
+  </si>
+  <si>
+    <t>78195f5a-759b-41ad-b5d7-2a4e588ede72</t>
+  </si>
+  <si>
+    <t>73a99249-5a0f-41a5-a775-f432d3e0ab51</t>
+  </si>
+  <si>
+    <t>9285ca59-21c4-44c7-9c61-8c307cbd678b</t>
+  </si>
+  <si>
+    <t>ba4921ab-76fd-49a9-bb3f-9af23e9c9f58</t>
+  </si>
+  <si>
+    <t>146111f0-5ba3-4fcb-96a9-69f143a44752</t>
+  </si>
+  <si>
+    <t>2cbf9b6e-fef6-4cdd-ac95-f82b9c07d83d</t>
+  </si>
+  <si>
+    <t>9b01fce0-6c53-46c1-b469-a93de41593d5</t>
+  </si>
+  <si>
+    <t>ad701192-eb60-41df-9aa7-7bf39eb9492a</t>
+  </si>
+  <si>
+    <t>8a298f41-4c3d-4eda-90c2-2d42b16f92cb</t>
+  </si>
+  <si>
+    <t>859d0376-a57a-471d-8cd8-3378d2fcf678</t>
+  </si>
+  <si>
+    <t>e9412065-4b1a-445d-9da3-9569326fc9aa</t>
+  </si>
+  <si>
+    <t>42098a98-6d62-48e9-abb5-c3c9beec21b1</t>
+  </si>
+  <si>
+    <t>21746ff6-4488-4309-a119-562cf2e4644c</t>
+  </si>
+  <si>
+    <t>56f6f479-9cfb-4966-bc61-53df44f92d10</t>
+  </si>
+  <si>
+    <t>dc27d1fa-9533-41d4-9a20-49fae4891d8f</t>
+  </si>
+  <si>
+    <t>d2ab0d7c-b316-4c79-8cbd-8de0f57fb9f9</t>
+  </si>
+  <si>
+    <t>c70ef1e0-b8a7-4eef-ae74-9da039a0981e</t>
+  </si>
+  <si>
+    <t>3c44c31b-dc69-4ab7-81c6-5abc1ff44790</t>
+  </si>
+  <si>
+    <t>2931920e-a0e5-4b84-bed7-82bdb4de6121</t>
+  </si>
+  <si>
+    <t>595ab574-2c03-4dbb-ac6d-150a3f4c4925</t>
+  </si>
+  <si>
+    <t>dbb7dc07-546f-451b-9ba5-1f84e4d06400</t>
+  </si>
+  <si>
+    <t>b11de58e-3825-4b4e-997e-869b04afcc83</t>
+  </si>
+  <si>
+    <t>4399493e-e28f-4b22-a151-7e960a888646</t>
+  </si>
+  <si>
+    <t>8c7fb615-f9a1-4e17-a3b6-8cef379f6f18</t>
+  </si>
+  <si>
+    <t>6f798354-5803-4950-8a45-e628dbb418ca</t>
+  </si>
+  <si>
+    <t>91382d5b-ad18-4b01-bd87-7a6f8c5a35d1</t>
+  </si>
+  <si>
+    <t>9b634d84-435e-43bf-a18e-25fa7c0f889b</t>
+  </si>
+  <si>
+    <t>63939809-3006-4726-b7d6-f2693060e05d</t>
+  </si>
+  <si>
+    <t>036d5fbb-1c86-492c-9267-10c121396418</t>
+  </si>
+  <si>
+    <t>62fb7a33-ee9e-4b69-b55a-7c61906101f3</t>
+  </si>
+  <si>
+    <t>f27832fb-ee05-4a6d-992e-84af62e42c91</t>
+  </si>
+  <si>
+    <t>39a893e3-47fb-4021-9dbc-a58137d98baa</t>
+  </si>
+  <si>
+    <t>dd5e233d-30ca-43f8-91e3-57347fe3cd09</t>
+  </si>
+  <si>
+    <t>d45664a2-fc8f-4623-bf4e-f6c82a573f61</t>
+  </si>
+  <si>
+    <t>6fc79693-7f8a-4b8e-9d16-54481d6614ff</t>
+  </si>
+  <si>
+    <t>6c2f1cf1-e16a-4d1c-893b-14600b3b6847</t>
+  </si>
+  <si>
+    <t>4ece5897-1e1f-4fe7-9686-91cfeba1be89</t>
+  </si>
+  <si>
+    <t>e236ce4a-8bd5-4236-915c-f6c51fc09a85</t>
+  </si>
+  <si>
+    <t>17a40280-d565-4ec7-b02a-565a0e25cb0d</t>
+  </si>
+  <si>
+    <t>f064826c-748c-4f53-9b49-b878ee1e8762</t>
+  </si>
+  <si>
+    <t>2be0e67b-ec5d-4448-8cb7-9325c223eb78</t>
+  </si>
+  <si>
+    <t>1a106295-c52d-448c-87ee-900913fa3118</t>
+  </si>
+  <si>
+    <t>f7c0ffb8-8e24-4f0e-91e6-bab4aacc25a5</t>
+  </si>
+  <si>
+    <t>0eced62b-80f1-4103-8d41-4cfc1429b741</t>
+  </si>
+  <si>
+    <t>c8a06638-b13e-4d76-891e-dedf2adc088b</t>
+  </si>
+  <si>
+    <t>91598ac7-8fd5-4d3d-a9c2-6d204d51596b</t>
+  </si>
+  <si>
+    <t>f5a16aa2-0177-4e56-9bcf-3baa1acba62e</t>
+  </si>
+  <si>
+    <t>30e20ee6-baf8-4bec-a8af-73a067bc6a28</t>
+  </si>
+  <si>
+    <t>cef58ca6-37aa-46f9-bdc1-e4029eb118f6</t>
+  </si>
+  <si>
+    <t>da40f057-a03b-42e0-8690-6fba7dd1a60f</t>
+  </si>
+  <si>
+    <t>eeee6ecf-ccfa-4d7f-9762-35373dd6c67a</t>
+  </si>
+  <si>
+    <t>85d26b27-16ea-4139-b2b6-d3b6310ee85b</t>
+  </si>
+  <si>
+    <t>256fa744-589c-441c-9270-0bfb8d4b4f9d</t>
+  </si>
+  <si>
+    <t>b4442081-ddc8-4bcb-9861-d6a417feff71</t>
+  </si>
+  <si>
+    <t>2f7a18af-ee68-4200-a9bd-768a6ea3b993</t>
+  </si>
+  <si>
+    <t>eb04f93e-2db7-43af-a5cc-f4fd53261e52</t>
+  </si>
+  <si>
+    <t>7cbe81ff-cffb-4a0d-ba55-929fb844e5f8</t>
+  </si>
+  <si>
+    <t>5db89e68-ae18-43c5-9907-d8ef139fbde7</t>
+  </si>
+  <si>
+    <t>e1add64c-9388-4430-aea3-50af1c5b2466</t>
+  </si>
+  <si>
+    <t>44ae2972-4a4f-4b25-9d6d-dff38f4e5425</t>
+  </si>
+  <si>
+    <t>a8232c86-7227-45b8-aed4-bad62adce95a</t>
+  </si>
+  <si>
+    <t>48d7cb36-6296-419e-bcaf-7f6c9490c9f6</t>
+  </si>
+  <si>
+    <t>ea9a7aef-d2d9-4c7d-933d-fcfb10e32536</t>
+  </si>
+  <si>
+    <t>7d287bdd-b024-4edf-805d-e6bdccc8bcd0</t>
+  </si>
+  <si>
+    <t>f9dd4433-7a2d-4e79-9de3-294f4c0f00ac</t>
+  </si>
+  <si>
+    <t>463f299d-2c26-468b-9bd1-3be9e763a087</t>
+  </si>
+  <si>
+    <t>e0fb180d-d3c1-4c13-9b0e-aff3a6bb9e01</t>
+  </si>
+  <si>
+    <t>4e342ef6-788f-47a0-ad8a-dad334a81b5f</t>
+  </si>
+  <si>
+    <t>2ed39bbe-bca0-41f2-be1d-4ccbecff78c3</t>
+  </si>
+  <si>
+    <t>41ccf4ef-c536-4f5e-aa8e-292032f35d62</t>
+  </si>
+  <si>
+    <t>8266b0f2-38e4-409e-a2e8-2bfd10924aec</t>
+  </si>
+  <si>
+    <t>5ba60b17-751d-450e-9566-f2955d2433cd</t>
+  </si>
+  <si>
+    <t>caa32b83-d911-4d59-ab0a-dba5407dc9f1</t>
+  </si>
+  <si>
+    <t>8707353a-d1a2-4197-9a50-7e161f4f127d</t>
+  </si>
+  <si>
+    <t>777642fe-649e-4f5b-b4c5-4317fe5f277b</t>
+  </si>
+  <si>
+    <t>27a66727-7f19-4a5c-a827-4e30a0a93981</t>
+  </si>
+  <si>
+    <t>a90498e2-9108-4c54-acf0-5c44fac4cc13</t>
+  </si>
+  <si>
+    <t>353a2754-a2cc-4dcf-a1cd-725ed219b0eb</t>
+  </si>
+  <si>
+    <t>d5ab7d2c-c598-467a-850f-2f25a6c55fba</t>
+  </si>
+  <si>
+    <t>2445685a-c6da-4fb3-be12-203bf7f7a9e5</t>
+  </si>
+  <si>
+    <t>1a84518d-a0b5-4bd5-9453-f7b96b68f7a7</t>
+  </si>
+  <si>
+    <t>091de011-c6dd-4ca7-94f7-c13056fcdb9d</t>
+  </si>
+  <si>
+    <t>cae4bae1-d581-4261-bb7a-ba1e05b7f837</t>
+  </si>
+  <si>
+    <t>599d19a2-088a-4836-adcd-8183ebe43ede</t>
+  </si>
+  <si>
+    <t>cc7fe4f6-5d53-41f9-b521-e9f42a05600b</t>
+  </si>
+  <si>
+    <t>2ce89ea6-24c5-4dab-88bc-830e11c4519e</t>
+  </si>
+  <si>
+    <t>70e4c579-a731-4c64-abb1-b4695ac3665a</t>
+  </si>
+  <si>
+    <t>382337d8-4501-40e3-8731-a294f1f89832</t>
+  </si>
+  <si>
+    <t>06833db4-f679-481e-a886-120d5ebaaba8</t>
+  </si>
+  <si>
+    <t>2db177d4-28b3-4736-9646-e701b2d42e24</t>
+  </si>
+  <si>
+    <t>8345107a-6a93-46e4-897f-a45e35e5cc33</t>
+  </si>
+  <si>
+    <t>8c149b8d-9463-480b-b1d0-3a0dfa63c99a</t>
+  </si>
+  <si>
+    <t>9c89cd29-5028-44b1-a98b-5a4a4c87a5ea</t>
+  </si>
+  <si>
+    <t>5353f2c7-ca4c-4f7d-9c9d-d11d44da5777</t>
+  </si>
+  <si>
+    <t>904985db-9f35-4d24-9c94-e091c4dde25a</t>
+  </si>
+  <si>
+    <t>50f47fed-c265-404e-a2df-e73ff0b9df87</t>
+  </si>
+  <si>
+    <t>43c2dfbc-54f9-44da-9d0d-295494e76b99</t>
+  </si>
+  <si>
+    <t>02dc8eb4-5308-4282-8aa0-e946e0fd9668</t>
+  </si>
+  <si>
+    <t>2b2ce9e7-480f-4dd1-a3f0-141d2d77369c</t>
+  </si>
+  <si>
+    <t>2ca2598d-d5b0-41f6-b494-4f2c6c60f3a5</t>
+  </si>
+  <si>
+    <t>7df9cac3-cec8-4199-b995-bd78231559c7</t>
+  </si>
+  <si>
+    <t>8ec971d2-7259-46a4-85ca-ae4f227ada5f</t>
+  </si>
+  <si>
+    <t>285a8bb6-a93b-4270-8cb5-29121336b0ee</t>
+  </si>
+  <si>
+    <t>f479bd76-85c1-4a66-bfbf-26f8be98f5c6</t>
+  </si>
+  <si>
+    <t>2e35137a-3321-4b53-b679-6efea72dfd4f</t>
+  </si>
+  <si>
+    <t>5a268fa4-fe21-4dd8-a37a-7fde53fe8c35</t>
+  </si>
+  <si>
+    <t>d620721a-16a1-4238-8f2d-c2fc124bbe7b</t>
+  </si>
+  <si>
+    <t>05e47d13-d2a0-433c-befc-18f2f6e4043e</t>
+  </si>
+  <si>
+    <t>25de95ab-ee78-4250-ae8e-dc21f9f78df7</t>
+  </si>
+  <si>
+    <t>e569238c-d670-40ce-aac9-04ed91b3a7fb</t>
+  </si>
+  <si>
+    <t>14fda0f2-2bcb-46d2-9c9e-79d74d33bcff</t>
+  </si>
+  <si>
+    <t>350ee43f-535b-43f3-94f3-350de1b26d37</t>
+  </si>
+  <si>
+    <t>1b96e230-f35d-47f6-b6c9-802d8accec33</t>
+  </si>
+  <si>
+    <t>6dc0c9bc-92ad-4fbb-8450-e2d6db8eaf5c</t>
+  </si>
+  <si>
+    <t>443d63c6-beda-47f0-ad96-3f7c91a37e61</t>
+  </si>
+  <si>
+    <t>9d9ebddf-4a0a-4f1f-8e4d-a2b40ec24b28</t>
+  </si>
+  <si>
+    <t>e26ecb6c-b399-4ed4-b40f-819a4cd7f710</t>
+  </si>
+  <si>
+    <t>0ae9dfe5-de0f-4c9a-98e1-779bc13b0953</t>
+  </si>
+  <si>
+    <t>b263d46c-33d0-420a-b454-4679f023e272</t>
+  </si>
+  <si>
+    <t>f1fe50c3-e6b4-4995-a218-a0b29ca816c9</t>
+  </si>
+  <si>
+    <t>8ba5b5c3-cca9-4dc1-8299-f9d5a8d0f198</t>
+  </si>
+  <si>
+    <t>9bf47935-450a-41f5-942c-69d8913df831</t>
+  </si>
+  <si>
+    <t>b7b62b80-acaf-47d7-9bdd-8dd1b7f3bee9</t>
+  </si>
+  <si>
+    <t>cb7103ee-14f2-4334-882a-768c5d51b8a7</t>
+  </si>
+  <si>
+    <t>119c6bf0-53b0-498d-8409-af66c65b81ad</t>
+  </si>
+  <si>
+    <t>c29c5832-f514-40cb-b69b-6f0bae1e786a</t>
+  </si>
+  <si>
+    <t>f3737731-879e-4ecb-b7e1-2f2ec5694c8d</t>
+  </si>
+  <si>
+    <t>f19fa2af-34b4-4033-8d15-2063fe2f355b</t>
+  </si>
+  <si>
+    <t>c7a79bf3-1d7e-414a-8639-b86adc2fe9f4</t>
+  </si>
+  <si>
+    <t>92060116-caec-4089-975c-1baeefc0ffbb</t>
+  </si>
+  <si>
+    <t>d5ef6768-5cd5-43f8-a836-0b62479e61e9</t>
+  </si>
+  <si>
+    <t>4b2cbe3a-9f8d-4fc9-920e-064c877e4c29</t>
+  </si>
+  <si>
+    <t>c0f85d2d-bccf-41e9-a7f3-b4f10663af4c</t>
+  </si>
+  <si>
+    <t>b7115bd6-d8ca-47a6-9d56-7a4256244f0f</t>
+  </si>
+  <si>
+    <t>661eec8b-7dda-4b22-9407-0075ca82bfe8</t>
+  </si>
+  <si>
+    <t>d4319aff-6a99-4385-affc-23698a666c65</t>
+  </si>
+  <si>
+    <t>e81ee96f-9ad5-4925-9e2c-cce33ef9bb26</t>
+  </si>
+  <si>
+    <t>788f6a86-b45e-40c4-ba19-3957c5dbd5d6</t>
+  </si>
+  <si>
+    <t>2f342c39-d1aa-4b2a-805a-0c45f3ee3ea5</t>
+  </si>
+  <si>
+    <t>c392b2bf-f22c-41bb-a005-2c3c47e98a55</t>
+  </si>
+  <si>
+    <t>46325093-6fb6-4854-a3c2-3121e5467a5a</t>
+  </si>
+  <si>
+    <t>f875c5f0-da50-4cbc-a51a-51826ba3939f</t>
+  </si>
+  <si>
+    <t>372089fd-a4b7-4819-a01b-7613a516aed3</t>
+  </si>
+  <si>
+    <t>4225aced-b8fc-4526-858e-e35c2bab452c</t>
+  </si>
+  <si>
+    <t>e0bc6ad0-6927-49a0-affd-55d8719edc88</t>
+  </si>
+  <si>
+    <t>88d136b5-761b-4d04-9261-a722322252bf</t>
+  </si>
+  <si>
+    <t>31a082ae-ea60-4afe-be12-27e007e4d8ef</t>
+  </si>
+  <si>
+    <t>8b64667f-efa2-481e-8ceb-cf37447f386f</t>
+  </si>
+  <si>
+    <t>7da97508-bba6-403b-b52d-27a6a8fb50f4</t>
+  </si>
+  <si>
+    <t>fc8155dd-2cd4-4853-8f72-a8b5c94acf9b</t>
+  </si>
+  <si>
+    <t>0d75e7af-f4fe-49b7-96b7-a1ec2c5df630</t>
+  </si>
+  <si>
+    <t>6f451ab9-87a3-4c66-97ef-747369dc423a</t>
+  </si>
+  <si>
+    <t>d6668905-c1e0-480a-a2e6-67b8f781a8f9</t>
+  </si>
+  <si>
+    <t>f181f5f9-604b-477f-9495-98c72b166356</t>
+  </si>
+  <si>
+    <t>409a5621-a860-4d22-8c80-1a892d8a985f</t>
+  </si>
+  <si>
+    <t>24c85861-bf8d-485b-848f-478a9fc3c33b</t>
+  </si>
+  <si>
+    <t>199097df-b3ea-40d2-9ac5-2b2a8c904033</t>
+  </si>
+  <si>
+    <t>0120ecba-5e43-4098-8d1e-12bf1ceaa771</t>
+  </si>
+  <si>
+    <t>a1b238c7-507f-41e7-864b-98879feafd4b</t>
+  </si>
+  <si>
+    <t>287e17fd-2803-4c94-9957-74d5916e39db</t>
+  </si>
+  <si>
+    <t>a706a0c5-1e5e-4caf-bb75-2cbf2e5c8174</t>
+  </si>
+  <si>
+    <t>2fdc5751-57f8-4925-a044-5587a26a31e4</t>
+  </si>
+  <si>
+    <t>83adecc7-c698-4781-a2a6-195f13cfd11f</t>
+  </si>
+  <si>
+    <t>d922a3c6-96c9-42f6-b86f-7085ed5baa4c</t>
+  </si>
+  <si>
+    <t>21e4b4ff-c402-482e-9670-4409b21144d4</t>
+  </si>
+  <si>
+    <t>403de1a7-3224-4069-980c-4c3a73d1d996</t>
+  </si>
+  <si>
+    <t>652b168e-01c6-4164-b913-0f070009feac</t>
+  </si>
+  <si>
+    <t>6fe9a16a-57d4-4100-95e8-4074efc73762</t>
+  </si>
+  <si>
+    <t>38ee6df5-6eac-4dee-a120-f7010eb51705</t>
+  </si>
+  <si>
+    <t>cdfb1abc-9ec9-416a-8cab-788a383b80ed</t>
+  </si>
+  <si>
+    <t>fed27d39-046c-474a-a0de-4f2dd50fd7ee</t>
+  </si>
+  <si>
+    <t>5d1a7d4a-9a66-4c29-9279-31bb23cd9c76</t>
+  </si>
+  <si>
+    <t>caf22493-a6fe-4694-ab0e-13474760caba</t>
+  </si>
+  <si>
+    <t>5e8da209-c6d9-4b34-a15e-3ed50573ab70</t>
+  </si>
+  <si>
+    <t>9706c210-2b4a-4933-96a0-cfca889b7f55</t>
+  </si>
+  <si>
+    <t>3ffea022-3e79-4b6c-b3e7-b0bfa541bf56</t>
+  </si>
+  <si>
+    <t>dc7f6055-bc76-40b4-8827-5fc0873d0af3</t>
+  </si>
+  <si>
+    <t>595c3fcc-3866-483b-8233-3bde0dc093de</t>
+  </si>
+  <si>
+    <t>4a8a5182-6515-48cb-b861-c3933c0faa8f</t>
+  </si>
+  <si>
+    <t>d3a9c21a-9b49-4d7c-bf72-edc35a31372f</t>
+  </si>
+  <si>
+    <t>8e51dcc8-f903-41e3-b7ae-2a2296fe3151</t>
+  </si>
+  <si>
+    <t>2bc204c6-27eb-43b3-af0a-a14cccdced09</t>
+  </si>
+  <si>
+    <t>f51f75fc-852a-4309-84e6-ae2289855c97</t>
+  </si>
+  <si>
+    <t>ec1bcbba-b09a-4204-bb25-80e30a0149a6</t>
+  </si>
+  <si>
+    <t>c827cbaa-f19f-4cf9-86ed-caab95f6249e</t>
+  </si>
+  <si>
+    <t>133a5382-04b2-4a8e-9f77-cf8857cfdae5</t>
+  </si>
+  <si>
+    <t>6330506a-e434-496c-bfff-d2499d93d75a</t>
+  </si>
+  <si>
+    <t>d17d8d55-ddac-4bb0-bcd3-40cbcb787fe9</t>
+  </si>
+  <si>
+    <t>adeb5384-7db9-4dbc-83ef-8623b7c546f3</t>
+  </si>
+  <si>
+    <t>61aaa381-5a19-4b24-b38b-2cfa7b23214b</t>
+  </si>
+  <si>
+    <t>19651a55-eede-4bcc-9b61-53a60b8f8867</t>
+  </si>
+  <si>
+    <t>62600d72-760f-470d-949a-986204c8162d</t>
+  </si>
+  <si>
+    <t>516db3b3-faed-4398-9adc-e7d3262837f4</t>
+  </si>
+  <si>
+    <t>82aa169c-e55c-4251-b189-5ed9e87cc8a4</t>
+  </si>
+  <si>
+    <t>875815c8-5264-413b-af44-ec5cc33e0b58</t>
+  </si>
+  <si>
+    <t>de3d10a5-41f6-4ed1-bb53-9f4267f22f5c</t>
+  </si>
+  <si>
+    <t>abe2e6ef-e65b-4958-9d30-7d8bf71e9348</t>
+  </si>
+  <si>
+    <t>1c769611-a9db-49b8-87b3-17fd59b717aa</t>
+  </si>
+  <si>
+    <t>d1293612-d08d-468f-87fb-daed63b517ed</t>
+  </si>
+  <si>
+    <t>13eb8adc-d55b-44ae-8fd4-9ff8056d727c</t>
+  </si>
+  <si>
+    <t>9b401cc5-ff2d-49a9-af03-af7014152a44</t>
+  </si>
+  <si>
+    <t>7e7c2213-3385-451d-84bb-3094ddd197a4</t>
+  </si>
+  <si>
+    <t>871cf0f6-89d6-454a-9f20-345137f6831c</t>
+  </si>
+  <si>
+    <t>7bf06044-f792-4703-a11d-01974859cce6</t>
+  </si>
+  <si>
+    <t>0c3017b6-164f-4a6a-b6f7-988331dd5b9b</t>
+  </si>
+  <si>
+    <t>43df7aff-d2aa-4761-b612-53a4390efc6b</t>
+  </si>
+  <si>
+    <t>4ca5f6a3-20cc-46aa-8ee5-1893d1592b0d</t>
+  </si>
+  <si>
+    <t>7e067bd1-09c4-4422-a6fa-291a7d33538b</t>
+  </si>
+  <si>
+    <t>6d267809-8427-4849-954a-8076ccfc1938</t>
+  </si>
+  <si>
+    <t>ab4cdc76-df43-4dfb-9fca-a815141e6b9c</t>
+  </si>
+  <si>
+    <t>70c94109-5514-4426-8f0f-f5b149f1fb51</t>
+  </si>
+  <si>
+    <t>4e3d961a-6288-41f5-8784-cb2ad20a93e7</t>
+  </si>
+  <si>
+    <t>248d70bc-a123-48dd-8e0f-981e51315526</t>
+  </si>
+  <si>
+    <t>ec191fe0-d1f9-4541-a8db-f216feb91c97</t>
+  </si>
+  <si>
+    <t>334b7ca1-32a4-4b6d-990e-5254b95dc9da</t>
+  </si>
+  <si>
+    <t>188ce7c2-cfb9-4c12-904f-aba1d0762a29</t>
+  </si>
+  <si>
+    <t>53048963-b319-44e5-92a8-6a7d0451d672</t>
+  </si>
+  <si>
+    <t>cc1b96bc-6512-45dd-8cb0-c711fa1ce1f7</t>
+  </si>
+  <si>
+    <t>af77986f-d119-47ab-b2c1-744d978b9905</t>
+  </si>
+  <si>
+    <t>ac4d0c1d-1129-45ec-b82e-99b8de1e0b46</t>
+  </si>
+  <si>
+    <t>a32586c3-9eef-4fac-aa13-5555057d6921</t>
+  </si>
+  <si>
+    <t>84202912-6234-4864-85cf-99a470dcb6bd</t>
+  </si>
+  <si>
+    <t>8886ccab-47f8-4c3a-b75c-3056b367cf00</t>
+  </si>
+  <si>
+    <t>673a3512-648e-475f-9f93-6518c33a49d5</t>
+  </si>
+  <si>
+    <t>95d5f60a-f397-467a-823c-be580f1eb850</t>
+  </si>
+  <si>
+    <t>a371bdb0-b463-4c73-8524-0dc5d519df9f</t>
+  </si>
+  <si>
+    <t>8a8699d1-f6fc-4708-9ddc-0d0a05d9a57a</t>
+  </si>
+  <si>
+    <t>65d3330c-33f7-4ca4-b2d3-e1d9678bdf2a</t>
+  </si>
+  <si>
+    <t>749a54ae-7c4e-494c-8998-0df4c880b48e</t>
+  </si>
+  <si>
+    <t>b46a3f85-272a-4fb1-a8c9-52bd1b1c5d5e</t>
+  </si>
+  <si>
+    <t>b66fb4ed-51c3-45dd-b6f5-a64ccb12003b</t>
+  </si>
+  <si>
+    <t>5ba92f91-c07e-47eb-9e06-7cf035d23072</t>
+  </si>
+  <si>
+    <t>e34e30fb-fd82-4197-9e0c-a7e4d64e18bc</t>
+  </si>
+  <si>
+    <t>8005126e-ab25-495b-8826-56cc7f3520b4</t>
+  </si>
+  <si>
+    <t>7f00077a-e532-4562-a571-43d3e2877715</t>
+  </si>
+  <si>
+    <t>0908490f-5979-4981-808f-6c2517d983b6</t>
+  </si>
+  <si>
+    <t>63ff4f0c-c090-435e-af21-747074124355</t>
+  </si>
+  <si>
+    <t>136497ab-676e-46a6-9d6d-8c00bf1c0c7c</t>
+  </si>
+  <si>
+    <t>d5b059ab-21d0-4681-bb3b-a70c65982f71</t>
+  </si>
+  <si>
+    <t>93968145-0a28-4263-ac64-4814d339fc56</t>
+  </si>
+  <si>
+    <t>696d9fb7-1b96-43df-b796-55a1cfaf3271</t>
+  </si>
+  <si>
+    <t>ed155092-2336-4ac3-8391-ef8ca80c2649</t>
+  </si>
+  <si>
+    <t>e9f941af-2243-49e2-9f89-dd3daf9b7f03</t>
+  </si>
+  <si>
+    <t>ea195ea3-bec2-46a7-99ee-5bdce4e78871</t>
+  </si>
+  <si>
+    <t>0d39e230-e0e6-4506-bb8b-9603b89b601c</t>
+  </si>
+  <si>
+    <t>11a237fd-68bb-4cc7-b7dc-97476d374037</t>
+  </si>
+  <si>
+    <t>68d530a8-abef-460c-80bc-90aa1dfcf7ce</t>
+  </si>
+  <si>
+    <t>61cef66b-35f0-4ca2-9b0a-7b3218df9b49</t>
+  </si>
+  <si>
+    <t>9199241d-cdbf-443e-9053-9e5ad8551802</t>
   </si>
 </sst>
 </file>
@@ -3366,10 +4662,10 @@
         <v>950</v>
       </c>
       <c r="BQ2" t="s">
-        <v>285</v>
+        <v>954</v>
       </c>
       <c r="BR2" t="s">
-        <v>285</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3">
@@ -3578,10 +4874,10 @@
         <v>950</v>
       </c>
       <c r="BQ3" t="s">
-        <v>286</v>
+        <v>955</v>
       </c>
       <c r="BR3" t="s">
-        <v>286</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4">
@@ -3790,10 +5086,10 @@
         <v>950</v>
       </c>
       <c r="BQ4" t="s">
-        <v>287</v>
+        <v>956</v>
       </c>
       <c r="BR4" t="s">
-        <v>287</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +5298,10 @@
         <v>951</v>
       </c>
       <c r="BQ5" t="s">
-        <v>288</v>
+        <v>957</v>
       </c>
       <c r="BR5" t="s">
-        <v>288</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6">
@@ -4214,10 +5510,10 @@
         <v>951</v>
       </c>
       <c r="BQ6" t="s">
-        <v>289</v>
+        <v>958</v>
       </c>
       <c r="BR6" t="s">
-        <v>289</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7">
@@ -4426,10 +5722,10 @@
         <v>950</v>
       </c>
       <c r="BQ7" t="s">
-        <v>290</v>
+        <v>959</v>
       </c>
       <c r="BR7" t="s">
-        <v>290</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8">
@@ -4638,10 +5934,10 @@
         <v>951</v>
       </c>
       <c r="BQ8" t="s">
-        <v>291</v>
+        <v>960</v>
       </c>
       <c r="BR8" t="s">
-        <v>291</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9">
@@ -4850,10 +6146,10 @@
         <v>951</v>
       </c>
       <c r="BQ9" t="s">
-        <v>292</v>
+        <v>961</v>
       </c>
       <c r="BR9" t="s">
-        <v>292</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="10">
@@ -5062,10 +6358,10 @@
         <v>950</v>
       </c>
       <c r="BQ10" t="s">
-        <v>293</v>
+        <v>962</v>
       </c>
       <c r="BR10" t="s">
-        <v>293</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="11">
@@ -5274,10 +6570,10 @@
         <v>950</v>
       </c>
       <c r="BQ11" t="s">
-        <v>294</v>
+        <v>963</v>
       </c>
       <c r="BR11" t="s">
-        <v>294</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="12">
@@ -5486,10 +6782,10 @@
         <v>950</v>
       </c>
       <c r="BQ12" t="s">
-        <v>295</v>
+        <v>964</v>
       </c>
       <c r="BR12" t="s">
-        <v>295</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13">
@@ -5698,10 +6994,10 @@
         <v>950</v>
       </c>
       <c r="BQ13" t="s">
-        <v>296</v>
+        <v>965</v>
       </c>
       <c r="BR13" t="s">
-        <v>296</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14">
@@ -5910,10 +7206,10 @@
         <v>950</v>
       </c>
       <c r="BQ14" t="s">
-        <v>297</v>
+        <v>966</v>
       </c>
       <c r="BR14" t="s">
-        <v>297</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15">
@@ -6122,10 +7418,10 @@
         <v>950</v>
       </c>
       <c r="BQ15" t="s">
-        <v>298</v>
+        <v>967</v>
       </c>
       <c r="BR15" t="s">
-        <v>298</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16">
@@ -6334,10 +7630,10 @@
         <v>950</v>
       </c>
       <c r="BQ16" t="s">
-        <v>299</v>
+        <v>968</v>
       </c>
       <c r="BR16" t="s">
-        <v>299</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="17">
@@ -6546,10 +7842,10 @@
         <v>950</v>
       </c>
       <c r="BQ17" t="s">
-        <v>300</v>
+        <v>969</v>
       </c>
       <c r="BR17" t="s">
-        <v>300</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18">
@@ -6758,10 +8054,10 @@
         <v>950</v>
       </c>
       <c r="BQ18" t="s">
-        <v>301</v>
+        <v>970</v>
       </c>
       <c r="BR18" t="s">
-        <v>301</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="19">
@@ -6970,10 +8266,10 @@
         <v>950</v>
       </c>
       <c r="BQ19" t="s">
-        <v>302</v>
+        <v>971</v>
       </c>
       <c r="BR19" t="s">
-        <v>302</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="20">
@@ -7182,10 +8478,10 @@
         <v>952</v>
       </c>
       <c r="BQ20" t="s">
-        <v>303</v>
+        <v>972</v>
       </c>
       <c r="BR20" t="s">
-        <v>303</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="21">
@@ -7394,10 +8690,10 @@
         <v>952</v>
       </c>
       <c r="BQ21" t="s">
-        <v>304</v>
+        <v>973</v>
       </c>
       <c r="BR21" t="s">
-        <v>304</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="22">
@@ -7606,10 +8902,10 @@
         <v>950</v>
       </c>
       <c r="BQ22" t="s">
-        <v>305</v>
+        <v>974</v>
       </c>
       <c r="BR22" t="s">
-        <v>305</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23">
@@ -7818,10 +9114,10 @@
         <v>950</v>
       </c>
       <c r="BQ23" t="s">
-        <v>306</v>
+        <v>975</v>
       </c>
       <c r="BR23" t="s">
-        <v>306</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24">
@@ -8030,10 +9326,10 @@
         <v>950</v>
       </c>
       <c r="BQ24" t="s">
-        <v>307</v>
+        <v>976</v>
       </c>
       <c r="BR24" t="s">
-        <v>307</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="25">
@@ -8242,10 +9538,10 @@
         <v>950</v>
       </c>
       <c r="BQ25" t="s">
-        <v>308</v>
+        <v>977</v>
       </c>
       <c r="BR25" t="s">
-        <v>308</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26">
@@ -8454,10 +9750,10 @@
         <v>950</v>
       </c>
       <c r="BQ26" t="s">
-        <v>309</v>
+        <v>978</v>
       </c>
       <c r="BR26" t="s">
-        <v>309</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27">
@@ -8666,10 +9962,10 @@
         <v>950</v>
       </c>
       <c r="BQ27" t="s">
-        <v>310</v>
+        <v>979</v>
       </c>
       <c r="BR27" t="s">
-        <v>310</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="28">
@@ -8878,10 +10174,10 @@
         <v>950</v>
       </c>
       <c r="BQ28" t="s">
-        <v>311</v>
+        <v>980</v>
       </c>
       <c r="BR28" t="s">
-        <v>311</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="29">
@@ -9090,10 +10386,10 @@
         <v>951</v>
       </c>
       <c r="BQ29" t="s">
-        <v>312</v>
+        <v>981</v>
       </c>
       <c r="BR29" t="s">
-        <v>312</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="30">
@@ -9302,10 +10598,10 @@
         <v>950</v>
       </c>
       <c r="BQ30" t="s">
-        <v>313</v>
+        <v>982</v>
       </c>
       <c r="BR30" t="s">
-        <v>313</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="31">
@@ -9514,10 +10810,10 @@
         <v>950</v>
       </c>
       <c r="BQ31" t="s">
-        <v>314</v>
+        <v>983</v>
       </c>
       <c r="BR31" t="s">
-        <v>314</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="32">
@@ -9726,10 +11022,10 @@
         <v>950</v>
       </c>
       <c r="BQ32" t="s">
-        <v>315</v>
+        <v>984</v>
       </c>
       <c r="BR32" t="s">
-        <v>315</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33">
@@ -9938,10 +11234,10 @@
         <v>951</v>
       </c>
       <c r="BQ33" t="s">
-        <v>316</v>
+        <v>985</v>
       </c>
       <c r="BR33" t="s">
-        <v>316</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="34">
@@ -10150,10 +11446,10 @@
         <v>950</v>
       </c>
       <c r="BQ34" t="s">
-        <v>317</v>
+        <v>986</v>
       </c>
       <c r="BR34" t="s">
-        <v>317</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="35">
@@ -10362,10 +11658,10 @@
         <v>951</v>
       </c>
       <c r="BQ35" t="s">
-        <v>318</v>
+        <v>987</v>
       </c>
       <c r="BR35" t="s">
-        <v>318</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="36">
@@ -10574,10 +11870,10 @@
         <v>952</v>
       </c>
       <c r="BQ36" t="s">
-        <v>319</v>
+        <v>988</v>
       </c>
       <c r="BR36" t="s">
-        <v>319</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="37">
@@ -10786,10 +12082,10 @@
         <v>950</v>
       </c>
       <c r="BQ37" t="s">
-        <v>320</v>
+        <v>989</v>
       </c>
       <c r="BR37" t="s">
-        <v>320</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="38">
@@ -10998,10 +12294,10 @@
         <v>951</v>
       </c>
       <c r="BQ38" t="s">
-        <v>321</v>
+        <v>990</v>
       </c>
       <c r="BR38" t="s">
-        <v>321</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39">
@@ -11210,10 +12506,10 @@
         <v>950</v>
       </c>
       <c r="BQ39" t="s">
-        <v>322</v>
+        <v>991</v>
       </c>
       <c r="BR39" t="s">
-        <v>322</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="40">
@@ -11422,10 +12718,10 @@
         <v>952</v>
       </c>
       <c r="BQ40" t="s">
-        <v>323</v>
+        <v>992</v>
       </c>
       <c r="BR40" t="s">
-        <v>323</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41">
@@ -11634,10 +12930,10 @@
         <v>950</v>
       </c>
       <c r="BQ41" t="s">
-        <v>324</v>
+        <v>993</v>
       </c>
       <c r="BR41" t="s">
-        <v>324</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="42">
@@ -11846,10 +13142,10 @@
         <v>951</v>
       </c>
       <c r="BQ42" t="s">
-        <v>325</v>
+        <v>994</v>
       </c>
       <c r="BR42" t="s">
-        <v>325</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="43">
@@ -12058,10 +13354,10 @@
         <v>950</v>
       </c>
       <c r="BQ43" t="s">
-        <v>326</v>
+        <v>995</v>
       </c>
       <c r="BR43" t="s">
-        <v>326</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="44">
@@ -12270,10 +13566,10 @@
         <v>951</v>
       </c>
       <c r="BQ44" t="s">
-        <v>327</v>
+        <v>996</v>
       </c>
       <c r="BR44" t="s">
-        <v>327</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="45">
@@ -12482,10 +13778,10 @@
         <v>950</v>
       </c>
       <c r="BQ45" t="s">
-        <v>328</v>
+        <v>997</v>
       </c>
       <c r="BR45" t="s">
-        <v>328</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="46">
@@ -12694,10 +13990,10 @@
         <v>950</v>
       </c>
       <c r="BQ46" t="s">
-        <v>329</v>
+        <v>998</v>
       </c>
       <c r="BR46" t="s">
-        <v>329</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="47">
@@ -12906,10 +14202,10 @@
         <v>950</v>
       </c>
       <c r="BQ47" t="s">
-        <v>330</v>
+        <v>999</v>
       </c>
       <c r="BR47" t="s">
-        <v>330</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="48">
@@ -13118,10 +14414,10 @@
         <v>950</v>
       </c>
       <c r="BQ48" t="s">
-        <v>331</v>
+        <v>1000</v>
       </c>
       <c r="BR48" t="s">
-        <v>331</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="49">
@@ -13330,10 +14626,10 @@
         <v>952</v>
       </c>
       <c r="BQ49" t="s">
-        <v>332</v>
+        <v>1001</v>
       </c>
       <c r="BR49" t="s">
-        <v>332</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="50">
@@ -13542,10 +14838,10 @@
         <v>951</v>
       </c>
       <c r="BQ50" t="s">
-        <v>333</v>
+        <v>1002</v>
       </c>
       <c r="BR50" t="s">
-        <v>333</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="51">
@@ -13754,10 +15050,10 @@
         <v>952</v>
       </c>
       <c r="BQ51" t="s">
-        <v>334</v>
+        <v>1003</v>
       </c>
       <c r="BR51" t="s">
-        <v>334</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="52">
@@ -13966,10 +15262,10 @@
         <v>950</v>
       </c>
       <c r="BQ52" t="s">
-        <v>335</v>
+        <v>1004</v>
       </c>
       <c r="BR52" t="s">
-        <v>335</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="53">
@@ -14178,10 +15474,10 @@
         <v>950</v>
       </c>
       <c r="BQ53" t="s">
-        <v>336</v>
+        <v>1005</v>
       </c>
       <c r="BR53" t="s">
-        <v>336</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="54">
@@ -14390,10 +15686,10 @@
         <v>952</v>
       </c>
       <c r="BQ54" t="s">
-        <v>337</v>
+        <v>1006</v>
       </c>
       <c r="BR54" t="s">
-        <v>337</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="55">
@@ -14602,10 +15898,10 @@
         <v>952</v>
       </c>
       <c r="BQ55" t="s">
-        <v>338</v>
+        <v>1007</v>
       </c>
       <c r="BR55" t="s">
-        <v>338</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="56">
@@ -14814,10 +16110,10 @@
         <v>952</v>
       </c>
       <c r="BQ56" t="s">
-        <v>339</v>
+        <v>1008</v>
       </c>
       <c r="BR56" t="s">
-        <v>339</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="57">
@@ -15026,10 +16322,10 @@
         <v>950</v>
       </c>
       <c r="BQ57" t="s">
-        <v>340</v>
+        <v>1009</v>
       </c>
       <c r="BR57" t="s">
-        <v>340</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="58">
@@ -15238,10 +16534,10 @@
         <v>950</v>
       </c>
       <c r="BQ58" t="s">
-        <v>341</v>
+        <v>1010</v>
       </c>
       <c r="BR58" t="s">
-        <v>341</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="59">
@@ -15450,10 +16746,10 @@
         <v>952</v>
       </c>
       <c r="BQ59" t="s">
-        <v>342</v>
+        <v>1011</v>
       </c>
       <c r="BR59" t="s">
-        <v>342</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="60">
@@ -15662,10 +16958,10 @@
         <v>950</v>
       </c>
       <c r="BQ60" t="s">
-        <v>343</v>
+        <v>1012</v>
       </c>
       <c r="BR60" t="s">
-        <v>343</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="61">
@@ -15874,10 +17170,10 @@
         <v>950</v>
       </c>
       <c r="BQ61" t="s">
-        <v>344</v>
+        <v>1013</v>
       </c>
       <c r="BR61" t="s">
-        <v>344</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="62">
@@ -16086,10 +17382,10 @@
         <v>950</v>
       </c>
       <c r="BQ62" t="s">
-        <v>345</v>
+        <v>1014</v>
       </c>
       <c r="BR62" t="s">
-        <v>345</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="63">
@@ -16298,10 +17594,10 @@
         <v>950</v>
       </c>
       <c r="BQ63" t="s">
-        <v>346</v>
+        <v>1015</v>
       </c>
       <c r="BR63" t="s">
-        <v>346</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="64">
@@ -16510,10 +17806,10 @@
         <v>950</v>
       </c>
       <c r="BQ64" t="s">
-        <v>347</v>
+        <v>1016</v>
       </c>
       <c r="BR64" t="s">
-        <v>347</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="65">
@@ -16722,10 +18018,10 @@
         <v>950</v>
       </c>
       <c r="BQ65" t="s">
-        <v>348</v>
+        <v>1017</v>
       </c>
       <c r="BR65" t="s">
-        <v>348</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="66">
@@ -16934,10 +18230,10 @@
         <v>951</v>
       </c>
       <c r="BQ66" t="s">
-        <v>349</v>
+        <v>1018</v>
       </c>
       <c r="BR66" t="s">
-        <v>349</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="67">
@@ -17146,10 +18442,10 @@
         <v>951</v>
       </c>
       <c r="BQ67" t="s">
-        <v>350</v>
+        <v>1019</v>
       </c>
       <c r="BR67" t="s">
-        <v>350</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="68">
@@ -17358,10 +18654,10 @@
         <v>951</v>
       </c>
       <c r="BQ68" t="s">
-        <v>351</v>
+        <v>1020</v>
       </c>
       <c r="BR68" t="s">
-        <v>351</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="69">
@@ -17570,10 +18866,10 @@
         <v>950</v>
       </c>
       <c r="BQ69" t="s">
-        <v>352</v>
+        <v>1021</v>
       </c>
       <c r="BR69" t="s">
-        <v>352</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="70">
@@ -17782,10 +19078,10 @@
         <v>952</v>
       </c>
       <c r="BQ70" t="s">
-        <v>353</v>
+        <v>1022</v>
       </c>
       <c r="BR70" t="s">
-        <v>353</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="71">
@@ -17994,10 +19290,10 @@
         <v>950</v>
       </c>
       <c r="BQ71" t="s">
-        <v>354</v>
+        <v>1023</v>
       </c>
       <c r="BR71" t="s">
-        <v>354</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="72">
@@ -18206,10 +19502,10 @@
         <v>950</v>
       </c>
       <c r="BQ72" t="s">
-        <v>355</v>
+        <v>1024</v>
       </c>
       <c r="BR72" t="s">
-        <v>355</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="73">
@@ -18418,10 +19714,10 @@
         <v>952</v>
       </c>
       <c r="BQ73" t="s">
-        <v>356</v>
+        <v>1025</v>
       </c>
       <c r="BR73" t="s">
-        <v>356</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="74">
@@ -18630,10 +19926,10 @@
         <v>950</v>
       </c>
       <c r="BQ74" t="s">
-        <v>357</v>
+        <v>1026</v>
       </c>
       <c r="BR74" t="s">
-        <v>357</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="75">
@@ -18842,10 +20138,10 @@
         <v>952</v>
       </c>
       <c r="BQ75" t="s">
-        <v>358</v>
+        <v>1027</v>
       </c>
       <c r="BR75" t="s">
-        <v>358</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="76">
@@ -19054,10 +20350,10 @@
         <v>950</v>
       </c>
       <c r="BQ76" t="s">
-        <v>359</v>
+        <v>1028</v>
       </c>
       <c r="BR76" t="s">
-        <v>359</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="77">
@@ -19266,10 +20562,10 @@
         <v>953</v>
       </c>
       <c r="BQ77" t="s">
-        <v>360</v>
+        <v>1029</v>
       </c>
       <c r="BR77" t="s">
-        <v>360</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="78">
@@ -19478,10 +20774,10 @@
         <v>950</v>
       </c>
       <c r="BQ78" t="s">
-        <v>361</v>
+        <v>1030</v>
       </c>
       <c r="BR78" t="s">
-        <v>361</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="79">
@@ -19690,10 +20986,10 @@
         <v>950</v>
       </c>
       <c r="BQ79" t="s">
-        <v>362</v>
+        <v>1031</v>
       </c>
       <c r="BR79" t="s">
-        <v>362</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="80">
@@ -19902,10 +21198,10 @@
         <v>951</v>
       </c>
       <c r="BQ80" t="s">
-        <v>363</v>
+        <v>1032</v>
       </c>
       <c r="BR80" t="s">
-        <v>363</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="81">
@@ -20114,10 +21410,10 @@
         <v>950</v>
       </c>
       <c r="BQ81" t="s">
-        <v>364</v>
+        <v>1033</v>
       </c>
       <c r="BR81" t="s">
-        <v>364</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="82">
@@ -20326,10 +21622,10 @@
         <v>950</v>
       </c>
       <c r="BQ82" t="s">
-        <v>365</v>
+        <v>1034</v>
       </c>
       <c r="BR82" t="s">
-        <v>365</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="83">
@@ -20538,10 +21834,10 @@
         <v>950</v>
       </c>
       <c r="BQ83" t="s">
-        <v>366</v>
+        <v>1035</v>
       </c>
       <c r="BR83" t="s">
-        <v>366</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="84">
@@ -20750,10 +22046,10 @@
         <v>950</v>
       </c>
       <c r="BQ84" t="s">
-        <v>367</v>
+        <v>1036</v>
       </c>
       <c r="BR84" t="s">
-        <v>367</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="85">
@@ -20962,10 +22258,10 @@
         <v>951</v>
       </c>
       <c r="BQ85" t="s">
-        <v>368</v>
+        <v>1037</v>
       </c>
       <c r="BR85" t="s">
-        <v>368</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="86">
@@ -21174,10 +22470,10 @@
         <v>952</v>
       </c>
       <c r="BQ86" t="s">
-        <v>369</v>
+        <v>1038</v>
       </c>
       <c r="BR86" t="s">
-        <v>369</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="87">
@@ -21386,10 +22682,10 @@
         <v>950</v>
       </c>
       <c r="BQ87" t="s">
-        <v>370</v>
+        <v>1039</v>
       </c>
       <c r="BR87" t="s">
-        <v>370</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="88">
@@ -21598,10 +22894,10 @@
         <v>950</v>
       </c>
       <c r="BQ88" t="s">
-        <v>371</v>
+        <v>1040</v>
       </c>
       <c r="BR88" t="s">
-        <v>371</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="89">
@@ -21810,10 +23106,10 @@
         <v>950</v>
       </c>
       <c r="BQ89" t="s">
-        <v>372</v>
+        <v>1041</v>
       </c>
       <c r="BR89" t="s">
-        <v>372</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="90">
@@ -22022,10 +23318,10 @@
         <v>950</v>
       </c>
       <c r="BQ90" t="s">
-        <v>373</v>
+        <v>1042</v>
       </c>
       <c r="BR90" t="s">
-        <v>373</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="91">
@@ -22234,10 +23530,10 @@
         <v>950</v>
       </c>
       <c r="BQ91" t="s">
-        <v>374</v>
+        <v>1043</v>
       </c>
       <c r="BR91" t="s">
-        <v>374</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="92">
@@ -22446,10 +23742,10 @@
         <v>950</v>
       </c>
       <c r="BQ92" t="s">
-        <v>375</v>
+        <v>1044</v>
       </c>
       <c r="BR92" t="s">
-        <v>375</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="93">
@@ -22658,10 +23954,10 @@
         <v>950</v>
       </c>
       <c r="BQ93" t="s">
-        <v>376</v>
+        <v>1045</v>
       </c>
       <c r="BR93" t="s">
-        <v>376</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="94">
@@ -22870,10 +24166,10 @@
         <v>950</v>
       </c>
       <c r="BQ94" t="s">
-        <v>377</v>
+        <v>1046</v>
       </c>
       <c r="BR94" t="s">
-        <v>377</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="95">
@@ -23082,10 +24378,10 @@
         <v>950</v>
       </c>
       <c r="BQ95" t="s">
-        <v>378</v>
+        <v>1047</v>
       </c>
       <c r="BR95" t="s">
-        <v>378</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="96">
@@ -23294,10 +24590,10 @@
         <v>950</v>
       </c>
       <c r="BQ96" t="s">
-        <v>379</v>
+        <v>1048</v>
       </c>
       <c r="BR96" t="s">
-        <v>379</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="97">
@@ -23506,10 +24802,10 @@
         <v>950</v>
       </c>
       <c r="BQ97" t="s">
-        <v>380</v>
+        <v>1049</v>
       </c>
       <c r="BR97" t="s">
-        <v>380</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="98">
@@ -23718,10 +25014,10 @@
         <v>950</v>
       </c>
       <c r="BQ98" t="s">
-        <v>381</v>
+        <v>1050</v>
       </c>
       <c r="BR98" t="s">
-        <v>381</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="99">
@@ -23930,10 +25226,10 @@
         <v>950</v>
       </c>
       <c r="BQ99" t="s">
-        <v>382</v>
+        <v>1051</v>
       </c>
       <c r="BR99" t="s">
-        <v>382</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="100">
@@ -24142,10 +25438,10 @@
         <v>950</v>
       </c>
       <c r="BQ100" t="s">
-        <v>383</v>
+        <v>1052</v>
       </c>
       <c r="BR100" t="s">
-        <v>383</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="101">
@@ -24354,10 +25650,10 @@
         <v>952</v>
       </c>
       <c r="BQ101" t="s">
-        <v>384</v>
+        <v>1053</v>
       </c>
       <c r="BR101" t="s">
-        <v>384</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="102">
@@ -24566,10 +25862,10 @@
         <v>952</v>
       </c>
       <c r="BQ102" t="s">
-        <v>385</v>
+        <v>1054</v>
       </c>
       <c r="BR102" t="s">
-        <v>385</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="103">
@@ -24778,10 +26074,10 @@
         <v>950</v>
       </c>
       <c r="BQ103" t="s">
-        <v>386</v>
+        <v>1055</v>
       </c>
       <c r="BR103" t="s">
-        <v>386</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="104">
@@ -24990,10 +26286,10 @@
         <v>950</v>
       </c>
       <c r="BQ104" t="s">
-        <v>387</v>
+        <v>1056</v>
       </c>
       <c r="BR104" t="s">
-        <v>387</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="105">
@@ -25202,10 +26498,10 @@
         <v>952</v>
       </c>
       <c r="BQ105" t="s">
-        <v>388</v>
+        <v>1057</v>
       </c>
       <c r="BR105" t="s">
-        <v>388</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="106">
@@ -25414,10 +26710,10 @@
         <v>951</v>
       </c>
       <c r="BQ106" t="s">
-        <v>389</v>
+        <v>1058</v>
       </c>
       <c r="BR106" t="s">
-        <v>389</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="107">
@@ -25626,10 +26922,10 @@
         <v>952</v>
       </c>
       <c r="BQ107" t="s">
-        <v>390</v>
+        <v>1059</v>
       </c>
       <c r="BR107" t="s">
-        <v>390</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="108">
@@ -25838,10 +27134,10 @@
         <v>950</v>
       </c>
       <c r="BQ108" t="s">
-        <v>391</v>
+        <v>1060</v>
       </c>
       <c r="BR108" t="s">
-        <v>391</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="109">
@@ -26050,10 +27346,10 @@
         <v>950</v>
       </c>
       <c r="BQ109" t="s">
-        <v>392</v>
+        <v>1061</v>
       </c>
       <c r="BR109" t="s">
-        <v>392</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="110">
@@ -26262,10 +27558,10 @@
         <v>951</v>
       </c>
       <c r="BQ110" t="s">
-        <v>393</v>
+        <v>1062</v>
       </c>
       <c r="BR110" t="s">
-        <v>393</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="111">
@@ -26474,10 +27770,10 @@
         <v>950</v>
       </c>
       <c r="BQ111" t="s">
-        <v>394</v>
+        <v>1063</v>
       </c>
       <c r="BR111" t="s">
-        <v>394</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="112">
@@ -26686,10 +27982,10 @@
         <v>951</v>
       </c>
       <c r="BQ112" t="s">
-        <v>395</v>
+        <v>1064</v>
       </c>
       <c r="BR112" t="s">
-        <v>395</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="113">
@@ -26898,10 +28194,10 @@
         <v>952</v>
       </c>
       <c r="BQ113" t="s">
-        <v>396</v>
+        <v>1065</v>
       </c>
       <c r="BR113" t="s">
-        <v>396</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="114">
@@ -27110,10 +28406,10 @@
         <v>950</v>
       </c>
       <c r="BQ114" t="s">
-        <v>397</v>
+        <v>1066</v>
       </c>
       <c r="BR114" t="s">
-        <v>397</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="115">
@@ -27322,10 +28618,10 @@
         <v>950</v>
       </c>
       <c r="BQ115" t="s">
-        <v>398</v>
+        <v>1067</v>
       </c>
       <c r="BR115" t="s">
-        <v>398</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="116">
@@ -27534,10 +28830,10 @@
         <v>950</v>
       </c>
       <c r="BQ116" t="s">
-        <v>399</v>
+        <v>1068</v>
       </c>
       <c r="BR116" t="s">
-        <v>399</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="117">
@@ -27746,10 +29042,10 @@
         <v>950</v>
       </c>
       <c r="BQ117" t="s">
-        <v>400</v>
+        <v>1069</v>
       </c>
       <c r="BR117" t="s">
-        <v>400</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="118">
@@ -27958,10 +29254,10 @@
         <v>950</v>
       </c>
       <c r="BQ118" t="s">
-        <v>401</v>
+        <v>1070</v>
       </c>
       <c r="BR118" t="s">
-        <v>401</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="119">
@@ -28170,10 +29466,10 @@
         <v>950</v>
       </c>
       <c r="BQ119" t="s">
-        <v>402</v>
+        <v>1071</v>
       </c>
       <c r="BR119" t="s">
-        <v>402</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="120">
@@ -28382,10 +29678,10 @@
         <v>950</v>
       </c>
       <c r="BQ120" t="s">
-        <v>403</v>
+        <v>1072</v>
       </c>
       <c r="BR120" t="s">
-        <v>403</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="121">
@@ -28594,10 +29890,10 @@
         <v>950</v>
       </c>
       <c r="BQ121" t="s">
-        <v>404</v>
+        <v>1073</v>
       </c>
       <c r="BR121" t="s">
-        <v>404</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="122">
@@ -28806,10 +30102,10 @@
         <v>950</v>
       </c>
       <c r="BQ122" t="s">
-        <v>405</v>
+        <v>1074</v>
       </c>
       <c r="BR122" t="s">
-        <v>405</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="123">
@@ -29018,10 +30314,10 @@
         <v>951</v>
       </c>
       <c r="BQ123" t="s">
-        <v>406</v>
+        <v>1075</v>
       </c>
       <c r="BR123" t="s">
-        <v>406</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="124">
@@ -29230,10 +30526,10 @@
         <v>950</v>
       </c>
       <c r="BQ124" t="s">
-        <v>407</v>
+        <v>1076</v>
       </c>
       <c r="BR124" t="s">
-        <v>407</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="125">
@@ -29442,10 +30738,10 @@
         <v>950</v>
       </c>
       <c r="BQ125" t="s">
-        <v>408</v>
+        <v>1077</v>
       </c>
       <c r="BR125" t="s">
-        <v>408</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="126">
@@ -29652,10 +30948,10 @@
         <v>950</v>
       </c>
       <c r="BQ126" t="s">
-        <v>409</v>
+        <v>1078</v>
       </c>
       <c r="BR126" t="s">
-        <v>409</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="127">
@@ -29864,10 +31160,10 @@
         <v>950</v>
       </c>
       <c r="BQ127" t="s">
-        <v>410</v>
+        <v>1079</v>
       </c>
       <c r="BR127" t="s">
-        <v>410</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="128">
@@ -30076,10 +31372,10 @@
         <v>950</v>
       </c>
       <c r="BQ128" t="s">
-        <v>411</v>
+        <v>1080</v>
       </c>
       <c r="BR128" t="s">
-        <v>411</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="129">
@@ -30288,10 +31584,10 @@
         <v>950</v>
       </c>
       <c r="BQ129" t="s">
-        <v>412</v>
+        <v>1081</v>
       </c>
       <c r="BR129" t="s">
-        <v>412</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="130">
@@ -30500,10 +31796,10 @@
         <v>952</v>
       </c>
       <c r="BQ130" t="s">
-        <v>413</v>
+        <v>1082</v>
       </c>
       <c r="BR130" t="s">
-        <v>413</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="131">
@@ -30712,10 +32008,10 @@
         <v>950</v>
       </c>
       <c r="BQ131" t="s">
-        <v>414</v>
+        <v>1083</v>
       </c>
       <c r="BR131" t="s">
-        <v>414</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="132">
@@ -30924,10 +32220,10 @@
         <v>950</v>
       </c>
       <c r="BQ132" t="s">
-        <v>415</v>
+        <v>1084</v>
       </c>
       <c r="BR132" t="s">
-        <v>415</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="133">
@@ -31136,10 +32432,10 @@
         <v>950</v>
       </c>
       <c r="BQ133" t="s">
-        <v>416</v>
+        <v>1085</v>
       </c>
       <c r="BR133" t="s">
-        <v>416</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="134">
@@ -31346,10 +32642,10 @@
         <v>951</v>
       </c>
       <c r="BQ134" t="s">
-        <v>417</v>
+        <v>1086</v>
       </c>
       <c r="BR134" t="s">
-        <v>417</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="135">
@@ -31558,10 +32854,10 @@
         <v>951</v>
       </c>
       <c r="BQ135" t="s">
-        <v>418</v>
+        <v>1087</v>
       </c>
       <c r="BR135" t="s">
-        <v>418</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="136">
@@ -31770,10 +33066,10 @@
         <v>950</v>
       </c>
       <c r="BQ136" t="s">
-        <v>419</v>
+        <v>1088</v>
       </c>
       <c r="BR136" t="s">
-        <v>419</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="137">
@@ -31982,10 +33278,10 @@
         <v>950</v>
       </c>
       <c r="BQ137" t="s">
-        <v>420</v>
+        <v>1089</v>
       </c>
       <c r="BR137" t="s">
-        <v>420</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="138">
@@ -32194,10 +33490,10 @@
         <v>950</v>
       </c>
       <c r="BQ138" t="s">
-        <v>421</v>
+        <v>1090</v>
       </c>
       <c r="BR138" t="s">
-        <v>421</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="139">
@@ -32406,10 +33702,10 @@
         <v>950</v>
       </c>
       <c r="BQ139" t="s">
-        <v>422</v>
+        <v>1091</v>
       </c>
       <c r="BR139" t="s">
-        <v>422</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="140">
@@ -32618,10 +33914,10 @@
         <v>952</v>
       </c>
       <c r="BQ140" t="s">
-        <v>423</v>
+        <v>1092</v>
       </c>
       <c r="BR140" t="s">
-        <v>423</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="141">
@@ -32830,10 +34126,10 @@
         <v>950</v>
       </c>
       <c r="BQ141" t="s">
-        <v>424</v>
+        <v>1093</v>
       </c>
       <c r="BR141" t="s">
-        <v>424</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="142">
@@ -33042,10 +34338,10 @@
         <v>950</v>
       </c>
       <c r="BQ142" t="s">
-        <v>425</v>
+        <v>1094</v>
       </c>
       <c r="BR142" t="s">
-        <v>425</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="143">
@@ -33254,10 +34550,10 @@
         <v>950</v>
       </c>
       <c r="BQ143" t="s">
-        <v>426</v>
+        <v>1095</v>
       </c>
       <c r="BR143" t="s">
-        <v>426</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="144">
@@ -33466,10 +34762,10 @@
         <v>950</v>
       </c>
       <c r="BQ144" t="s">
-        <v>427</v>
+        <v>1096</v>
       </c>
       <c r="BR144" t="s">
-        <v>427</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="145">
@@ -33678,10 +34974,10 @@
         <v>950</v>
       </c>
       <c r="BQ145" t="s">
-        <v>428</v>
+        <v>1097</v>
       </c>
       <c r="BR145" t="s">
-        <v>428</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="146">
@@ -33890,10 +35186,10 @@
         <v>951</v>
       </c>
       <c r="BQ146" t="s">
-        <v>429</v>
+        <v>1098</v>
       </c>
       <c r="BR146" t="s">
-        <v>429</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="147">
@@ -34102,10 +35398,10 @@
         <v>950</v>
       </c>
       <c r="BQ147" t="s">
-        <v>430</v>
+        <v>1099</v>
       </c>
       <c r="BR147" t="s">
-        <v>430</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="148">
@@ -34314,10 +35610,10 @@
         <v>951</v>
       </c>
       <c r="BQ148" t="s">
-        <v>431</v>
+        <v>1100</v>
       </c>
       <c r="BR148" t="s">
-        <v>431</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="149">
@@ -34526,10 +35822,10 @@
         <v>950</v>
       </c>
       <c r="BQ149" t="s">
-        <v>432</v>
+        <v>1101</v>
       </c>
       <c r="BR149" t="s">
-        <v>432</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="150">
@@ -34738,10 +36034,10 @@
         <v>950</v>
       </c>
       <c r="BQ150" t="s">
-        <v>433</v>
+        <v>1102</v>
       </c>
       <c r="BR150" t="s">
-        <v>433</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="151">
@@ -34950,10 +36246,10 @@
         <v>951</v>
       </c>
       <c r="BQ151" t="s">
-        <v>434</v>
+        <v>1103</v>
       </c>
       <c r="BR151" t="s">
-        <v>434</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="152">
@@ -35162,10 +36458,10 @@
         <v>950</v>
       </c>
       <c r="BQ152" t="s">
-        <v>435</v>
+        <v>1104</v>
       </c>
       <c r="BR152" t="s">
-        <v>435</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="153">
@@ -35374,10 +36670,10 @@
         <v>951</v>
       </c>
       <c r="BQ153" t="s">
-        <v>436</v>
+        <v>1105</v>
       </c>
       <c r="BR153" t="s">
-        <v>436</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="154">
@@ -35586,10 +36882,10 @@
         <v>950</v>
       </c>
       <c r="BQ154" t="s">
-        <v>437</v>
+        <v>1106</v>
       </c>
       <c r="BR154" t="s">
-        <v>437</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="155">
@@ -35798,10 +37094,10 @@
         <v>952</v>
       </c>
       <c r="BQ155" t="s">
-        <v>438</v>
+        <v>1107</v>
       </c>
       <c r="BR155" t="s">
-        <v>438</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="156">
@@ -36010,10 +37306,10 @@
         <v>950</v>
       </c>
       <c r="BQ156" t="s">
-        <v>439</v>
+        <v>1108</v>
       </c>
       <c r="BR156" t="s">
-        <v>439</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="157">
@@ -36222,10 +37518,10 @@
         <v>950</v>
       </c>
       <c r="BQ157" t="s">
-        <v>440</v>
+        <v>1109</v>
       </c>
       <c r="BR157" t="s">
-        <v>440</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="158">
@@ -36434,10 +37730,10 @@
         <v>951</v>
       </c>
       <c r="BQ158" t="s">
-        <v>441</v>
+        <v>1110</v>
       </c>
       <c r="BR158" t="s">
-        <v>441</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="159">
@@ -36646,10 +37942,10 @@
         <v>950</v>
       </c>
       <c r="BQ159" t="s">
-        <v>442</v>
+        <v>1111</v>
       </c>
       <c r="BR159" t="s">
-        <v>442</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="160">
@@ -36858,10 +38154,10 @@
         <v>950</v>
       </c>
       <c r="BQ160" t="s">
-        <v>443</v>
+        <v>1112</v>
       </c>
       <c r="BR160" t="s">
-        <v>443</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="161">
@@ -37070,10 +38366,10 @@
         <v>950</v>
       </c>
       <c r="BQ161" t="s">
-        <v>444</v>
+        <v>1113</v>
       </c>
       <c r="BR161" t="s">
-        <v>444</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="162">
@@ -37282,10 +38578,10 @@
         <v>952</v>
       </c>
       <c r="BQ162" t="s">
-        <v>445</v>
+        <v>1114</v>
       </c>
       <c r="BR162" t="s">
-        <v>445</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="163">
@@ -37494,10 +38790,10 @@
         <v>950</v>
       </c>
       <c r="BQ163" t="s">
-        <v>446</v>
+        <v>1115</v>
       </c>
       <c r="BR163" t="s">
-        <v>446</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="164">
@@ -37706,10 +39002,10 @@
         <v>950</v>
       </c>
       <c r="BQ164" t="s">
-        <v>447</v>
+        <v>1116</v>
       </c>
       <c r="BR164" t="s">
-        <v>447</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="165">
@@ -37918,10 +39214,10 @@
         <v>952</v>
       </c>
       <c r="BQ165" t="s">
-        <v>448</v>
+        <v>1117</v>
       </c>
       <c r="BR165" t="s">
-        <v>448</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="166">
@@ -38130,10 +39426,10 @@
         <v>952</v>
       </c>
       <c r="BQ166" t="s">
-        <v>449</v>
+        <v>1118</v>
       </c>
       <c r="BR166" t="s">
-        <v>449</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="167">
@@ -38342,10 +39638,10 @@
         <v>952</v>
       </c>
       <c r="BQ167" t="s">
-        <v>450</v>
+        <v>1119</v>
       </c>
       <c r="BR167" t="s">
-        <v>450</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="168">
@@ -38554,10 +39850,10 @@
         <v>950</v>
       </c>
       <c r="BQ168" t="s">
-        <v>451</v>
+        <v>1120</v>
       </c>
       <c r="BR168" t="s">
-        <v>451</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="169">
@@ -38766,10 +40062,10 @@
         <v>951</v>
       </c>
       <c r="BQ169" t="s">
-        <v>452</v>
+        <v>1121</v>
       </c>
       <c r="BR169" t="s">
-        <v>452</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="170">
@@ -38978,10 +40274,10 @@
         <v>950</v>
       </c>
       <c r="BQ170" t="s">
-        <v>453</v>
+        <v>1122</v>
       </c>
       <c r="BR170" t="s">
-        <v>453</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="171">
@@ -39190,10 +40486,10 @@
         <v>950</v>
       </c>
       <c r="BQ171" t="s">
-        <v>454</v>
+        <v>1123</v>
       </c>
       <c r="BR171" t="s">
-        <v>454</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="172">
@@ -39402,10 +40698,10 @@
         <v>951</v>
       </c>
       <c r="BQ172" t="s">
-        <v>455</v>
+        <v>1124</v>
       </c>
       <c r="BR172" t="s">
-        <v>455</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="173">
@@ -39614,10 +40910,10 @@
         <v>950</v>
       </c>
       <c r="BQ173" t="s">
-        <v>456</v>
+        <v>1125</v>
       </c>
       <c r="BR173" t="s">
-        <v>456</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="174">
@@ -39826,10 +41122,10 @@
         <v>950</v>
       </c>
       <c r="BQ174" t="s">
-        <v>457</v>
+        <v>1126</v>
       </c>
       <c r="BR174" t="s">
-        <v>457</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="175">
@@ -40036,10 +41332,10 @@
         <v>950</v>
       </c>
       <c r="BQ175" t="s">
-        <v>458</v>
+        <v>1127</v>
       </c>
       <c r="BR175" t="s">
-        <v>458</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="176">
@@ -40248,10 +41544,10 @@
         <v>952</v>
       </c>
       <c r="BQ176" t="s">
-        <v>459</v>
+        <v>1128</v>
       </c>
       <c r="BR176" t="s">
-        <v>459</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="177">
@@ -40460,10 +41756,10 @@
         <v>950</v>
       </c>
       <c r="BQ177" t="s">
-        <v>460</v>
+        <v>1129</v>
       </c>
       <c r="BR177" t="s">
-        <v>460</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="178">
@@ -40672,10 +41968,10 @@
         <v>952</v>
       </c>
       <c r="BQ178" t="s">
-        <v>461</v>
+        <v>1130</v>
       </c>
       <c r="BR178" t="s">
-        <v>461</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="179">
@@ -40884,10 +42180,10 @@
         <v>951</v>
       </c>
       <c r="BQ179" t="s">
-        <v>462</v>
+        <v>1131</v>
       </c>
       <c r="BR179" t="s">
-        <v>462</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="180">
@@ -41096,10 +42392,10 @@
         <v>950</v>
       </c>
       <c r="BQ180" t="s">
-        <v>463</v>
+        <v>1132</v>
       </c>
       <c r="BR180" t="s">
-        <v>463</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="181">
@@ -41308,10 +42604,10 @@
         <v>951</v>
       </c>
       <c r="BQ181" t="s">
-        <v>464</v>
+        <v>1133</v>
       </c>
       <c r="BR181" t="s">
-        <v>464</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="182">
@@ -41520,10 +42816,10 @@
         <v>950</v>
       </c>
       <c r="BQ182" t="s">
-        <v>465</v>
+        <v>1134</v>
       </c>
       <c r="BR182" t="s">
-        <v>465</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="183">
@@ -41732,10 +43028,10 @@
         <v>950</v>
       </c>
       <c r="BQ183" t="s">
-        <v>466</v>
+        <v>1135</v>
       </c>
       <c r="BR183" t="s">
-        <v>466</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="184">
@@ -41944,10 +43240,10 @@
         <v>950</v>
       </c>
       <c r="BQ184" t="s">
-        <v>467</v>
+        <v>1136</v>
       </c>
       <c r="BR184" t="s">
-        <v>467</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="185">
@@ -42156,10 +43452,10 @@
         <v>952</v>
       </c>
       <c r="BQ185" t="s">
-        <v>468</v>
+        <v>1137</v>
       </c>
       <c r="BR185" t="s">
-        <v>468</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="186">
@@ -42368,10 +43664,10 @@
         <v>951</v>
       </c>
       <c r="BQ186" t="s">
-        <v>469</v>
+        <v>1138</v>
       </c>
       <c r="BR186" t="s">
-        <v>469</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="187">
@@ -42580,10 +43876,10 @@
         <v>951</v>
       </c>
       <c r="BQ187" t="s">
-        <v>470</v>
+        <v>1139</v>
       </c>
       <c r="BR187" t="s">
-        <v>470</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="188">
@@ -42792,10 +44088,10 @@
         <v>950</v>
       </c>
       <c r="BQ188" t="s">
-        <v>471</v>
+        <v>1140</v>
       </c>
       <c r="BR188" t="s">
-        <v>471</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="189">
@@ -43004,10 +44300,10 @@
         <v>950</v>
       </c>
       <c r="BQ189" t="s">
-        <v>472</v>
+        <v>1141</v>
       </c>
       <c r="BR189" t="s">
-        <v>472</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="190">
@@ -43216,10 +44512,10 @@
         <v>950</v>
       </c>
       <c r="BQ190" t="s">
-        <v>473</v>
+        <v>1142</v>
       </c>
       <c r="BR190" t="s">
-        <v>473</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="191">
@@ -43428,10 +44724,10 @@
         <v>950</v>
       </c>
       <c r="BQ191" t="s">
-        <v>474</v>
+        <v>1143</v>
       </c>
       <c r="BR191" t="s">
-        <v>474</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="192">
@@ -43640,10 +44936,10 @@
         <v>952</v>
       </c>
       <c r="BQ192" t="s">
-        <v>475</v>
+        <v>1144</v>
       </c>
       <c r="BR192" t="s">
-        <v>475</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="193">
@@ -43852,10 +45148,10 @@
         <v>950</v>
       </c>
       <c r="BQ193" t="s">
-        <v>476</v>
+        <v>1145</v>
       </c>
       <c r="BR193" t="s">
-        <v>476</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="194">
@@ -44064,10 +45360,10 @@
         <v>951</v>
       </c>
       <c r="BQ194" t="s">
-        <v>477</v>
+        <v>1146</v>
       </c>
       <c r="BR194" t="s">
-        <v>477</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="195">
@@ -44276,10 +45572,10 @@
         <v>950</v>
       </c>
       <c r="BQ195" t="s">
-        <v>478</v>
+        <v>1147</v>
       </c>
       <c r="BR195" t="s">
-        <v>478</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="196">
@@ -44488,10 +45784,10 @@
         <v>951</v>
       </c>
       <c r="BQ196" t="s">
-        <v>479</v>
+        <v>1148</v>
       </c>
       <c r="BR196" t="s">
-        <v>479</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="197">
@@ -44700,10 +45996,10 @@
         <v>952</v>
       </c>
       <c r="BQ197" t="s">
-        <v>480</v>
+        <v>1149</v>
       </c>
       <c r="BR197" t="s">
-        <v>480</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="198">
@@ -44912,10 +46208,10 @@
         <v>950</v>
       </c>
       <c r="BQ198" t="s">
-        <v>481</v>
+        <v>1150</v>
       </c>
       <c r="BR198" t="s">
-        <v>481</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="199">
@@ -45124,10 +46420,10 @@
         <v>950</v>
       </c>
       <c r="BQ199" t="s">
-        <v>482</v>
+        <v>1151</v>
       </c>
       <c r="BR199" t="s">
-        <v>482</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="200">
@@ -45336,10 +46632,10 @@
         <v>950</v>
       </c>
       <c r="BQ200" t="s">
-        <v>483</v>
+        <v>1152</v>
       </c>
       <c r="BR200" t="s">
-        <v>483</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="201">
@@ -45548,10 +46844,10 @@
         <v>950</v>
       </c>
       <c r="BQ201" t="s">
-        <v>484</v>
+        <v>1153</v>
       </c>
       <c r="BR201" t="s">
-        <v>484</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="202">
@@ -45760,10 +47056,10 @@
         <v>950</v>
       </c>
       <c r="BQ202" t="s">
-        <v>485</v>
+        <v>1154</v>
       </c>
       <c r="BR202" t="s">
-        <v>485</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="203">
@@ -45972,10 +47268,10 @@
         <v>950</v>
       </c>
       <c r="BQ203" t="s">
-        <v>486</v>
+        <v>1155</v>
       </c>
       <c r="BR203" t="s">
-        <v>486</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="204">
@@ -46184,10 +47480,10 @@
         <v>952</v>
       </c>
       <c r="BQ204" t="s">
-        <v>487</v>
+        <v>1156</v>
       </c>
       <c r="BR204" t="s">
-        <v>487</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="205">
@@ -46396,10 +47692,10 @@
         <v>952</v>
       </c>
       <c r="BQ205" t="s">
-        <v>488</v>
+        <v>1157</v>
       </c>
       <c r="BR205" t="s">
-        <v>488</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="206">
@@ -46608,10 +47904,10 @@
         <v>952</v>
       </c>
       <c r="BQ206" t="s">
-        <v>489</v>
+        <v>1158</v>
       </c>
       <c r="BR206" t="s">
-        <v>489</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="207">
@@ -46820,10 +48116,10 @@
         <v>950</v>
       </c>
       <c r="BQ207" t="s">
-        <v>490</v>
+        <v>1159</v>
       </c>
       <c r="BR207" t="s">
-        <v>490</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="208">
@@ -47032,10 +48328,10 @@
         <v>950</v>
       </c>
       <c r="BQ208" t="s">
-        <v>491</v>
+        <v>1160</v>
       </c>
       <c r="BR208" t="s">
-        <v>491</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="209">
@@ -47244,10 +48540,10 @@
         <v>950</v>
       </c>
       <c r="BQ209" t="s">
-        <v>492</v>
+        <v>1161</v>
       </c>
       <c r="BR209" t="s">
-        <v>492</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="210">
@@ -47456,10 +48752,10 @@
         <v>952</v>
       </c>
       <c r="BQ210" t="s">
-        <v>493</v>
+        <v>1162</v>
       </c>
       <c r="BR210" t="s">
-        <v>493</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="211">
@@ -47668,10 +48964,10 @@
         <v>950</v>
       </c>
       <c r="BQ211" t="s">
-        <v>494</v>
+        <v>1163</v>
       </c>
       <c r="BR211" t="s">
-        <v>494</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="212">
@@ -47880,10 +49176,10 @@
         <v>950</v>
       </c>
       <c r="BQ212" t="s">
-        <v>495</v>
+        <v>1164</v>
       </c>
       <c r="BR212" t="s">
-        <v>495</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="213">
@@ -48092,10 +49388,10 @@
         <v>950</v>
       </c>
       <c r="BQ213" t="s">
-        <v>496</v>
+        <v>1165</v>
       </c>
       <c r="BR213" t="s">
-        <v>496</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="214">
@@ -48304,10 +49600,10 @@
         <v>951</v>
       </c>
       <c r="BQ214" t="s">
-        <v>497</v>
+        <v>1166</v>
       </c>
       <c r="BR214" t="s">
-        <v>497</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="215">
@@ -48516,10 +49812,10 @@
         <v>952</v>
       </c>
       <c r="BQ215" t="s">
-        <v>498</v>
+        <v>1167</v>
       </c>
       <c r="BR215" t="s">
-        <v>498</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="216">
@@ -48728,10 +50024,10 @@
         <v>950</v>
       </c>
       <c r="BQ216" t="s">
-        <v>499</v>
+        <v>1168</v>
       </c>
       <c r="BR216" t="s">
-        <v>499</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="217">
@@ -48940,10 +50236,10 @@
         <v>950</v>
       </c>
       <c r="BQ217" t="s">
-        <v>500</v>
+        <v>1169</v>
       </c>
       <c r="BR217" t="s">
-        <v>500</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
